--- a/size and speed tests.xlsx
+++ b/size and speed tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="620" windowWidth="34880" windowHeight="20980" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
